--- a/tests/040_minimal_example.xlsx
+++ b/tests/040_minimal_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\PycharmProjects\VocExcel\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A204C-3557-4B7F-ADF4-F27A90FA3C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAB2410-2A09-409F-9C69-782C618D71C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="4545" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="1965" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Surround Australia Pty Ltd</t>
   </si>
@@ -1249,6 +1249,9 @@
   <si>
     <t>CGI</t>
   </si>
+  <si>
+    <t>en</t>
+  </si>
 </sst>
 </file>
 
@@ -15333,7 +15336,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1008" sqref="B1008"/>
     </sheetView>
   </sheetViews>
@@ -18482,7 +18485,9 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18531,7 +18536,7 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
@@ -18580,14 +18585,16 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="D3" s="15" t="s">
         <v>57</v>
       </c>
@@ -18597,7 +18604,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -18608,7 +18615,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -18619,7 +18626,7 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -18630,7 +18637,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -18641,7 +18648,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -18652,7 +18659,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -18663,7 +18670,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -18674,7 +18681,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -18685,7 +18692,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -18696,7 +18703,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -18707,7 +18714,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -18718,7 +18725,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -18729,7 +18736,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -18740,7 +18747,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -18751,7 +18758,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -18762,7 +18769,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -18773,7 +18780,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -18784,7 +18791,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -18795,7 +18802,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -18806,7 +18813,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -18817,7 +18824,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -18828,7 +18835,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -18839,7 +18846,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -18850,7 +18857,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -18861,7 +18868,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -18872,7 +18879,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -18883,7 +18890,7 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -18894,7 +18901,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -18905,7 +18912,7 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -18916,7 +18923,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -18927,7 +18934,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -18938,7 +18945,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -18949,7 +18956,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -29623,7 +29630,7 @@
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -29664,7 +29671,7 @@
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A1000,1),)</f>
         <v>http://example/org/example1</v>
@@ -29675,7 +29682,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A4,Concepts!A4:A1000,1),)</f>
         <v>0</v>
@@ -29686,7 +29693,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A5,Concepts!A5:A1000,1),)</f>
         <v>0</v>
@@ -29697,7 +29704,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A6,Concepts!A6:A1000,1),)</f>
         <v>0</v>
@@ -29708,7 +29715,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A7,Concepts!A7:A1000,1),)</f>
         <v>0</v>
@@ -29719,7 +29726,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A8,Concepts!A8:A1000,1),)</f>
         <v>0</v>
@@ -29730,7 +29737,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A9,Concepts!A9:A1000,1),)</f>
         <v>0</v>
@@ -29741,7 +29748,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A10,Concepts!A10:A1000,1),)</f>
         <v>0</v>
@@ -29752,7 +29759,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A11,Concepts!A11:A1000,1),)</f>
         <v>0</v>
@@ -29763,7 +29770,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A12,Concepts!A12:A1000,1),)</f>
         <v>0</v>
@@ -29774,7 +29781,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A13,Concepts!A13:A1000,1),)</f>
         <v>0</v>
@@ -29785,7 +29792,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A14,Concepts!A14:A1000,1),)</f>
         <v>0</v>
@@ -29796,7 +29803,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A15,Concepts!A15:A1000,1),)</f>
         <v>0</v>
@@ -29807,7 +29814,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A16,Concepts!A16:A1000,1),)</f>
         <v>0</v>
@@ -29818,7 +29825,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A17,Concepts!A17:A1000,1),)</f>
         <v>0</v>
@@ -29829,7 +29836,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A18,Concepts!A18:A1000,1),)</f>
         <v>0</v>
@@ -29840,7 +29847,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A19,Concepts!A19:A1000,1),)</f>
         <v>0</v>
@@ -29851,7 +29858,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A20,Concepts!A20:A1000,1),)</f>
         <v>0</v>
@@ -29862,7 +29869,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A21,Concepts!A21:A1000,1),)</f>
         <v>0</v>
@@ -29873,7 +29880,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A22,Concepts!A22:A1000,1),)</f>
         <v>0</v>
@@ -29884,7 +29891,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A23,Concepts!A23:A1000,1),)</f>
         <v>0</v>
@@ -29895,7 +29902,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A24,Concepts!A24:A1000,1),)</f>
         <v>0</v>
@@ -29906,7 +29913,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A25,Concepts!A25:A1000,1),)</f>
         <v>0</v>
@@ -29917,7 +29924,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A26,Concepts!A26:A1000,1),)</f>
         <v>0</v>
@@ -29928,7 +29935,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A27,Concepts!A27:A1000,1),)</f>
         <v>0</v>
@@ -29939,7 +29946,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A28,Concepts!A28:A1000,1),)</f>
         <v>0</v>
@@ -29950,7 +29957,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A29,Concepts!A29:A1000,1),)</f>
         <v>0</v>
@@ -29961,7 +29968,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A30,Concepts!A30:A1000,1),)</f>
         <v>0</v>
@@ -29972,7 +29979,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A31,Concepts!A31:A1000,1),)</f>
         <v>0</v>
@@ -29983,7 +29990,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A32,Concepts!A32:A1000,1),)</f>
         <v>0</v>
@@ -29994,7 +30001,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A33,Concepts!A33:A1000,1),)</f>
         <v>0</v>
@@ -30005,7 +30012,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A34,Concepts!A34:A1000,1),)</f>
         <v>0</v>
@@ -30016,7 +30023,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A35,Concepts!A35:A1000,1),)</f>
         <v>0</v>
@@ -30027,7 +30034,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <f>IFERROR(HLOOKUP(Concepts!A36,Concepts!A36:A1000,1),)</f>
         <v>0</v>
@@ -38004,7 +38011,7 @@
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>66</v>
       </c>
@@ -38042,238 +38049,238 @@
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
